--- a/Metodos numericos/parcial3/Metodo trapecio.xlsx
+++ b/Metodos numericos/parcial3/Metodo trapecio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Sem4\Sem4ULSA\Metodos numericos\parcial3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A510E87B-90E5-4CC6-B11C-581DEC0B5F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8771CA-8268-4E57-8B7B-E512C37A3E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{24259B0D-0105-4B8C-9370-E46D6E3BCA16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Metodo del trapecio</t>
   </si>
@@ -74,15 +74,22 @@
     <t>5 trapecios</t>
   </si>
   <si>
-    <t>20 trapecios</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Metodo del Simpson</t>
+  </si>
+  <si>
+    <t>20 homeros gg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -242,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -285,6 +292,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BDDE80-9764-439E-9F5C-2A387554B4CA}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="185" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +784,9 @@
         <f t="shared" si="0"/>
         <v>78.666666666666671</v>
       </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
@@ -788,299 +801,356 @@
         <v>123.33333333333333</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7">
+        <f>(C22-C21)/C23</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="F26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
-        <f>C3</f>
+      <c r="C27" s="8">
+        <f>C21</f>
         <v>0</v>
       </c>
-      <c r="D19" s="9">
-        <f>5*(C19)^2-(C19/3)</f>
+      <c r="D27" s="9">
+        <f>5*(C27)^2-(C27/3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C20" s="8">
-        <f>C19+$C$6</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="9">
-        <f t="shared" ref="D20:D38" si="2">5*(C20)^2-(C20/3)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="C28" s="8">
+        <f>C27+$C$24</f>
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" ref="D28:D32" si="2">5*(C28)^2-(C28/3)</f>
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C21" s="8">
-        <f t="shared" ref="C21:C38" si="3">C20+$C$6</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="9">
-        <f t="shared" si="2"/>
-        <v>19.333333333333332</v>
-      </c>
-      <c r="F21" s="8">
-        <f>$C$6*(D19/2)+SUM(D20:D37)+(D38/2)</f>
-        <v>11387.333333333334</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="C29" s="8">
+        <f t="shared" ref="C29:C33" si="3">C28+$C$24</f>
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" ref="D29:D33" si="4">5*(C29)^2-(C29/3)</f>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F29" s="8">
+        <f>(C24/3)*(D27+(4*(D28+D30+D32+D34+D36+D38+D40+D42+D44+D46)+(2*(D29+D31+D33+D35+D37+D39+D41+D43+D45)+D47)))</f>
+        <v>204.16666666666666</v>
+      </c>
+      <c r="G29" s="8">
         <v>204.16669999999999</v>
       </c>
-      <c r="H21" s="10">
-        <f>(G21-F21)/G21</f>
-        <v>-54.774684771480047</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+      <c r="H29" s="15">
+        <f>(G29-F29)/G29</f>
+        <v>1.6326527947231299E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
         <v>4</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>5</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="2"/>
-        <v>78.666666666666671</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="2"/>
-        <v>123.33333333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
-        <v>7</v>
-      </c>
-      <c r="C25" s="8">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="2"/>
-        <v>242.66666666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <v>9</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="D27" s="9">
-        <f t="shared" si="2"/>
-        <v>317.33333333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
-        <v>10</v>
-      </c>
-      <c r="C28" s="8">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="D28" s="9">
-        <f t="shared" si="2"/>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="D29" s="9">
-        <f t="shared" si="2"/>
-        <v>496.66666666666669</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
-        <v>12</v>
       </c>
       <c r="C30" s="8">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0.75</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="2"/>
-        <v>601.33333333333337</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.5625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C31" s="8">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="4"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F31" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="9">
-        <f t="shared" si="2"/>
-        <v>716</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>1.25</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" si="2"/>
-        <v>840.66666666666663</v>
+        <f t="shared" si="4"/>
+        <v>7.395833333333333</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>1.5</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" si="2"/>
-        <v>975.33333333333337</v>
+        <f t="shared" si="4"/>
+        <v>10.75</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" ref="C34:C47" si="5">C33+$C$24</f>
+        <v>1.75</v>
       </c>
       <c r="D34" s="9">
-        <f t="shared" si="2"/>
-        <v>1120</v>
+        <f t="shared" ref="D34:D47" si="6">5*(C34)^2-(C34/3)</f>
+        <v>14.729166666666666</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="D35" s="9">
-        <f t="shared" si="2"/>
-        <v>1274.6666666666667</v>
+        <f t="shared" si="6"/>
+        <v>19.333333333333332</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>2.25</v>
       </c>
       <c r="D36" s="9">
-        <f t="shared" si="2"/>
-        <v>1439.3333333333333</v>
+        <f t="shared" si="6"/>
+        <v>24.5625</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
       <c r="D37" s="9">
-        <f t="shared" si="2"/>
-        <v>1614</v>
+        <f t="shared" si="6"/>
+        <v>30.416666666666668</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="5"/>
+        <v>2.75</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="6"/>
+        <v>36.895833333333336</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="8">
+        <v>13</v>
+      </c>
+      <c r="C39" s="8">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8">
+        <f t="shared" si="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="6"/>
+        <v>51.729166666666664</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="8">
+        <v>15</v>
+      </c>
+      <c r="C41" s="8">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="6"/>
+        <v>60.083333333333336</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <v>16</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="6"/>
+        <v>69.0625</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="8">
+        <v>17</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="6"/>
+        <v>78.666666666666671</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>18</v>
+      </c>
+      <c r="C44" s="8">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="6"/>
+        <v>88.895833333333329</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>19</v>
+      </c>
+      <c r="C45" s="8">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" si="6"/>
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
         <v>20</v>
       </c>
-      <c r="C38" s="8">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="D38" s="9">
-        <f t="shared" si="2"/>
-        <v>1798.6666666666667</v>
+      <c r="C46" s="8">
+        <f t="shared" si="5"/>
+        <v>4.75</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="6"/>
+        <v>111.22916666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="8">
+        <v>21</v>
+      </c>
+      <c r="C47" s="8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="6"/>
+        <v>123.33333333333333</v>
       </c>
     </row>
   </sheetData>
